--- a/outExe/已识别网站记录.xlsx
+++ b/outExe/已识别网站记录.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="2024-05-11" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-05-12" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -1032,4 +1033,38 @@
     <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>邮箱</v>
+      </c>
+      <c r="B1" t="str">
+        <v>网站</v>
+      </c>
+      <c r="C1" t="str">
+        <v>相关属性</v>
+      </c>
+      <c r="D1" t="str">
+        <v>判定</v>
+      </c>
+      <c r="E1" t="str">
+        <v>备注</v>
+      </c>
+      <c r="F1" t="str">
+        <v>时间</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
+  </ignoredErrors>
+</worksheet>
 </file>